--- a/Dokumentation/GanttDiagramm.xlsx
+++ b/Dokumentation/GanttDiagramm.xlsx
@@ -432,48 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -489,11 +447,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,12 +480,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14:AI14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,58 +917,58 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="17"/>
-      <c r="G1" s="27">
+      <c r="G1" s="56">
         <v>18.5</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="27">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="56">
         <v>1.6</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="27">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="56">
         <v>8.6</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="27">
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="56">
         <v>15.6</v>
       </c>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="27">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="56">
         <v>22.6</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="27">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="56">
         <v>29.6</v>
       </c>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -977,110 +977,110 @@
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="47"/>
+      <c r="AJ2" s="33"/>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="K3" s="8"/>
       <c r="L3" s="6"/>
       <c r="P3" s="8"/>
@@ -1094,18 +1094,18 @@
       <c r="AI3" s="8"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="11"/>
       <c r="L4" s="9"/>
       <c r="P4" s="11"/>
@@ -1131,18 +1131,18 @@
       <c r="AU4" s="22"/>
     </row>
     <row r="5" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="J5" s="42"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="8"/>
       <c r="L5" s="6"/>
       <c r="P5" s="8"/>
@@ -1156,19 +1156,19 @@
       <c r="AI5" s="8"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="11"/>
       <c r="L6" s="9"/>
-      <c r="P6" s="56"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="9"/>
       <c r="U6" s="11"/>
       <c r="V6" s="9"/>
@@ -1191,13 +1191,13 @@
       <c r="AU6" s="22"/>
     </row>
     <row r="7" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1206,8 +1206,8 @@
       <c r="L7" s="6"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
       <c r="U7" s="8"/>
       <c r="V7" s="6"/>
       <c r="Z7" s="8"/>
@@ -1217,11 +1217,11 @@
       <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="21" t="s">
         <v>6</v>
       </c>
@@ -1251,20 +1251,20 @@
       <c r="AU8" s="22"/>
     </row>
     <row r="9" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="6"/>
       <c r="K9" s="8"/>
       <c r="L9" s="6"/>
-      <c r="P9" s="43"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="6"/>
       <c r="U9" s="8"/>
       <c r="V9" s="6"/>
@@ -1275,18 +1275,18 @@
       <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="9"/>
       <c r="K10" s="11"/>
       <c r="L10" s="9"/>
-      <c r="P10" s="56"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="9"/>
       <c r="U10" s="11"/>
       <c r="V10" s="9"/>
@@ -1309,20 +1309,20 @@
       <c r="AU10" s="22"/>
     </row>
     <row r="11" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="6"/>
       <c r="K11" s="8"/>
       <c r="L11" s="6"/>
-      <c r="P11" s="43"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="6"/>
       <c r="U11" s="8"/>
       <c r="V11" s="6"/>
@@ -1333,18 +1333,18 @@
       <c r="AI11" s="8"/>
     </row>
     <row r="12" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="9"/>
       <c r="K12" s="11"/>
       <c r="L12" s="9"/>
-      <c r="P12" s="56"/>
+      <c r="P12" s="36"/>
       <c r="Q12" s="9"/>
       <c r="U12" s="11"/>
       <c r="V12" s="9"/>
@@ -1367,46 +1367,46 @@
       <c r="AU12" s="22"/>
     </row>
     <row r="13" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="41"/>
+      <c r="G13" s="27"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="27"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="27"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="41"/>
+      <c r="V13" s="27"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="41"/>
+      <c r="AA13" s="27"/>
       <c r="AE13" s="8"/>
-      <c r="AF13" s="41"/>
+      <c r="AF13" s="27"/>
       <c r="AI13" s="8"/>
     </row>
     <row r="14" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="35"/>
       <c r="K14" s="11"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="55"/>
+      <c r="M14" s="35"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="55"/>
+      <c r="R14" s="35"/>
       <c r="U14" s="11"/>
       <c r="V14" s="9"/>
       <c r="Z14" s="11"/>
@@ -1428,50 +1428,50 @@
       <c r="AU14" s="22"/>
     </row>
     <row r="15" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="8"/>
       <c r="L15" s="6"/>
-      <c r="O15" s="42"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="6"/>
-      <c r="T15" s="42"/>
+      <c r="T15" s="28"/>
       <c r="U15" s="8"/>
       <c r="V15" s="6"/>
-      <c r="Y15" s="42"/>
+      <c r="Y15" s="28"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="6"/>
-      <c r="AD15" s="42"/>
+      <c r="AD15" s="28"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="6"/>
       <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="K16" s="56"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="9"/>
-      <c r="O16" s="55"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="9"/>
-      <c r="U16" s="11"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="9"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="9"/>
@@ -1492,13 +1492,13 @@
       <c r="AU16" s="22"/>
     </row>
     <row r="17" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="20" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="6"/>
       <c r="P17" s="8"/>
-      <c r="T17" s="42"/>
+      <c r="T17" s="28"/>
       <c r="U17" s="8"/>
       <c r="V17" s="6"/>
       <c r="Z17" s="8"/>
@@ -1516,11 +1516,11 @@
       <c r="AI17" s="8"/>
     </row>
     <row r="18" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="21" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="9"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="57"/>
+      <c r="Q18" s="37"/>
       <c r="U18" s="11"/>
       <c r="V18" s="9"/>
       <c r="Z18" s="11"/>
@@ -1550,15 +1550,15 @@
       <c r="AU18" s="22"/>
     </row>
     <row r="19" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="20" t="s">
         <v>5</v>
       </c>
@@ -1567,8 +1567,8 @@
       <c r="L19" s="6"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="6"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
       <c r="U19" s="8"/>
       <c r="V19" s="6"/>
       <c r="Z19" s="8"/>
@@ -1578,11 +1578,11 @@
       <c r="AI19" s="8"/>
     </row>
     <row r="20" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="21" t="s">
         <v>6</v>
       </c>
@@ -1612,13 +1612,13 @@
       <c r="AU20" s="22"/>
     </row>
     <row r="21" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="20" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="L21" s="6"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="6"/>
-      <c r="U21" s="43"/>
+      <c r="U21" s="29"/>
       <c r="V21" s="6"/>
       <c r="Z21" s="8"/>
       <c r="AA21" s="6"/>
@@ -1636,11 +1636,11 @@
       <c r="AI21" s="8"/>
     </row>
     <row r="22" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="21" t="s">
         <v>6</v>
       </c>
@@ -1670,13 +1670,13 @@
       <c r="AU22" s="22"/>
     </row>
     <row r="23" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="L23" s="6"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="6"/>
-      <c r="U23" s="43"/>
+      <c r="U23" s="29"/>
       <c r="V23" s="6"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="6"/>
@@ -1694,11 +1694,11 @@
       <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="21" t="s">
         <v>6</v>
       </c>
@@ -1707,7 +1707,8 @@
       <c r="L24" s="9"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="9"/>
-      <c r="U24" s="11"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="9"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="9"/>
@@ -1728,13 +1729,13 @@
       <c r="AU24" s="22"/>
     </row>
     <row r="25" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="20" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1746,8 @@
       <c r="Q25" s="6"/>
       <c r="U25" s="8"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="6"/>
       <c r="AE25" s="8"/>
@@ -1754,11 +1755,11 @@
       <c r="AI25" s="8"/>
     </row>
     <row r="26" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="21" t="s">
         <v>6</v>
       </c>
@@ -1788,13 +1789,13 @@
       <c r="AU26" s="22"/>
     </row>
     <row r="27" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="20" t="s">
         <v>5</v>
       </c>
@@ -1805,8 +1806,8 @@
       <c r="Q27" s="6"/>
       <c r="U27" s="8"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="6"/>
       <c r="AE27" s="8"/>
@@ -1814,11 +1815,11 @@
       <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="21" t="s">
         <v>6</v>
       </c>
@@ -1848,13 +1849,13 @@
       <c r="AU28" s="22"/>
     </row>
     <row r="29" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="20" t="s">
         <v>5</v>
       </c>
@@ -1865,20 +1866,20 @@
       <c r="Q29" s="6"/>
       <c r="U29" s="8"/>
       <c r="V29" s="6"/>
-      <c r="Y29" s="42"/>
+      <c r="Y29" s="28"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="42"/>
+      <c r="AB29" s="28"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="6"/>
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="21" t="s">
         <v>6</v>
       </c>
@@ -1908,13 +1909,13 @@
       <c r="AU30" s="22"/>
     </row>
     <row r="31" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="20" t="s">
         <v>5</v>
       </c>
@@ -1927,18 +1928,18 @@
       <c r="V31" s="6"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="6"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="28"/>
       <c r="AE31" s="8"/>
       <c r="AF31" s="6"/>
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="21" t="s">
         <v>6</v>
       </c>
@@ -1968,13 +1969,13 @@
       <c r="AU32" s="22"/>
     </row>
     <row r="33" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1985,18 +1986,18 @@
       <c r="Q33" s="6"/>
       <c r="U33" s="8"/>
       <c r="V33" s="6"/>
-      <c r="Z33" s="43"/>
+      <c r="Z33" s="29"/>
       <c r="AA33" s="6"/>
       <c r="AE33" s="8"/>
       <c r="AF33" s="6"/>
       <c r="AI33" s="8"/>
     </row>
     <row r="34" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="21" t="s">
         <v>6</v>
       </c>
@@ -2026,13 +2027,13 @@
       <c r="AU34" s="22"/>
     </row>
     <row r="35" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="20" t="s">
         <v>5</v>
       </c>
@@ -2045,16 +2046,16 @@
       <c r="V35" s="6"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="6"/>
-      <c r="AE35" s="43"/>
+      <c r="AE35" s="29"/>
       <c r="AF35" s="6"/>
       <c r="AI35" s="8"/>
     </row>
     <row r="36" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="21" t="s">
         <v>6</v>
       </c>
@@ -2084,13 +2085,13 @@
       <c r="AU36" s="22"/>
     </row>
     <row r="37" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="20" t="s">
         <v>5</v>
       </c>
@@ -2103,18 +2104,18 @@
       <c r="V37" s="6"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="6"/>
-      <c r="AE37" s="43"/>
+      <c r="AE37" s="29"/>
       <c r="AF37" s="6"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="43"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="29"/>
     </row>
     <row r="38" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="21" t="s">
         <v>6</v>
       </c>
@@ -2144,15 +2145,15 @@
       <c r="AU38" s="22"/>
     </row>
     <row r="39" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="42"/>
+      <c r="C39" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="20" t="s">
         <v>5</v>
       </c>
@@ -2161,7 +2162,7 @@
       <c r="L39" s="6"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="6"/>
-      <c r="U39" s="43"/>
+      <c r="U39" s="29"/>
       <c r="V39" s="6"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="6"/>
@@ -2170,11 +2171,11 @@
       <c r="AI39" s="8"/>
     </row>
     <row r="40" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="21" t="s">
         <v>6</v>
       </c>
@@ -2204,13 +2205,13 @@
       <c r="AU40" s="22"/>
     </row>
     <row r="41" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="48"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="20" t="s">
         <v>5</v>
       </c>
@@ -2223,16 +2224,16 @@
       <c r="V41" s="6"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="6"/>
-      <c r="AE41" s="43"/>
+      <c r="AE41" s="29"/>
       <c r="AF41" s="6"/>
       <c r="AI41" s="8"/>
     </row>
     <row r="42" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="21" t="s">
         <v>6</v>
       </c>
@@ -2262,13 +2263,13 @@
       <c r="AU42" s="22"/>
     </row>
     <row r="43" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="20" t="s">
         <v>5</v>
       </c>
@@ -2277,21 +2278,21 @@
       <c r="L43" s="6"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="6"/>
-      <c r="U43" s="43"/>
+      <c r="U43" s="29"/>
       <c r="V43" s="6"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="6"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="41"/>
-      <c r="AG43" s="42"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="28"/>
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="21" t="s">
         <v>6</v>
       </c>
@@ -2321,15 +2322,15 @@
       <c r="AU44" s="22"/>
     </row>
     <row r="45" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="42"/>
+      <c r="C45" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="20" t="s">
         <v>5</v>
       </c>
@@ -2338,22 +2339,22 @@
       <c r="L45" s="6"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="6"/>
-      <c r="U45" s="43"/>
+      <c r="U45" s="29"/>
       <c r="V45" s="6"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="6"/>
-      <c r="AE45" s="43"/>
+      <c r="AE45" s="29"/>
       <c r="AF45" s="6"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
-      <c r="AI45" s="43"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="29"/>
     </row>
     <row r="46" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="53"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="21" t="s">
         <v>6</v>
       </c>
@@ -2383,13 +2384,13 @@
       <c r="AU46" s="22"/>
     </row>
     <row r="47" spans="1:47" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="39" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
@@ -2404,16 +2405,16 @@
       <c r="AA47" s="6"/>
       <c r="AE47" s="8"/>
       <c r="AF47" s="6"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="43"/>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+      <c r="AI47" s="29"/>
     </row>
     <row r="48" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="21" t="s">
         <v>6</v>
       </c>
@@ -2443,13 +2444,13 @@
       <c r="AU48" s="22"/>
     </row>
     <row r="49" spans="1:66" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="39" t="s">
+      <c r="A49" s="48"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="51"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="20" t="s">
         <v>5</v>
       </c>
@@ -2464,16 +2465,16 @@
       <c r="AA49" s="6"/>
       <c r="AE49" s="8"/>
       <c r="AF49" s="6"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
-      <c r="AI49" s="43"/>
+      <c r="AG49" s="28"/>
+      <c r="AH49" s="28"/>
+      <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="21" t="s">
         <v>6</v>
       </c>
@@ -2503,13 +2504,13 @@
       <c r="AU50" s="22"/>
     </row>
     <row r="51" spans="1:66" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="39" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="20" t="s">
         <v>5</v>
       </c>
@@ -2524,16 +2525,16 @@
       <c r="AA51" s="6"/>
       <c r="AE51" s="8"/>
       <c r="AF51" s="6"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
-      <c r="AI51" s="43"/>
+      <c r="AG51" s="28"/>
+      <c r="AH51" s="28"/>
+      <c r="AI51" s="29"/>
     </row>
     <row r="52" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="21" t="s">
         <v>6</v>
       </c>
@@ -2582,13 +2583,13 @@
       <c r="BN52" s="22"/>
     </row>
     <row r="53" spans="1:66" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="48"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="20" t="s">
         <v>5</v>
       </c>
@@ -2603,16 +2604,16 @@
       <c r="AA53" s="6"/>
       <c r="AE53" s="8"/>
       <c r="AF53" s="6"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
-      <c r="AI53" s="43"/>
+      <c r="AG53" s="28"/>
+      <c r="AH53" s="28"/>
+      <c r="AI53" s="29"/>
     </row>
     <row r="54" spans="1:66" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="24" t="s">
         <v>6</v>
       </c>
@@ -57031,30 +57032,31 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="A19:A38"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="D33:E34"/>
@@ -57071,31 +57073,30 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B54"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Dokumentation/GanttDiagramm.xlsx
+++ b/Dokumentation/GanttDiagramm.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="12000" windowHeight="2568"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="2568"/>
   </bookViews>
   <sheets>
     <sheet name="Balkenplan" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
   <si>
     <t xml:space="preserve">Datum
 </t>
@@ -444,38 +444,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,25 +487,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -530,6 +528,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609FA623-DC85-40C9-8EA5-20458CF48808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="4495800"/>
+          <a:ext cx="2689860" cy="1348740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BDE317-175C-4CD8-A376-0FA9A66D895A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="830580" y="4541520"/>
+          <a:ext cx="2705100" cy="1272540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:P20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ54" sqref="AJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,58 +1031,58 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="17"/>
-      <c r="G1" s="38">
+      <c r="G1" s="56">
         <v>18.5</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="38">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="56">
         <v>1.6</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="56">
         <v>8.6</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38">
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="56">
         <v>15.6</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="38">
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="56">
         <v>22.6</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="38">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="56">
         <v>29.6</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42"/>
+      <c r="B2" s="53"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1065,18 +1178,20 @@
       <c r="AI2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AJ2" s="33"/>
+      <c r="AJ2" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
@@ -1095,18 +1210,18 @@
       <c r="AI3" s="8"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="11"/>
       <c r="L4" s="9"/>
       <c r="P4" s="11"/>
@@ -1132,13 +1247,13 @@
       <c r="AU4" s="22"/>
     </row>
     <row r="5" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1157,19 +1272,19 @@
       <c r="AI5" s="8"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="9"/>
-      <c r="J6" s="35"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="11"/>
       <c r="L6" s="9"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="9"/>
       <c r="U6" s="11"/>
       <c r="V6" s="9"/>
@@ -1192,13 +1307,13 @@
       <c r="AU6" s="22"/>
     </row>
     <row r="7" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1218,11 +1333,11 @@
       <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="21" t="s">
         <v>6</v>
       </c>
@@ -1252,13 +1367,13 @@
       <c r="AU8" s="22"/>
     </row>
     <row r="9" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1276,18 +1391,18 @@
       <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="9"/>
       <c r="K10" s="11"/>
       <c r="L10" s="9"/>
-      <c r="P10" s="36"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="9"/>
       <c r="U10" s="11"/>
       <c r="V10" s="9"/>
@@ -1310,13 +1425,13 @@
       <c r="AU10" s="22"/>
     </row>
     <row r="11" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="20" t="s">
         <v>5</v>
       </c>
@@ -1334,18 +1449,18 @@
       <c r="AI11" s="8"/>
     </row>
     <row r="12" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="9"/>
       <c r="K12" s="11"/>
       <c r="L12" s="9"/>
-      <c r="P12" s="36"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="9"/>
       <c r="U12" s="11"/>
       <c r="V12" s="9"/>
@@ -1368,13 +1483,13 @@
       <c r="AU12" s="22"/>
     </row>
     <row r="13" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="20" t="s">
         <v>5</v>
       </c>
@@ -1392,28 +1507,31 @@
       <c r="AI13" s="8"/>
     </row>
     <row r="14" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="34"/>
       <c r="K14" s="11"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="35"/>
+      <c r="M14" s="34"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="35"/>
+      <c r="R14" s="34"/>
       <c r="U14" s="11"/>
       <c r="V14" s="9"/>
+      <c r="W14" s="34"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="9"/>
+      <c r="AB14" s="34"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="9"/>
+      <c r="AG14" s="34"/>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
@@ -1429,13 +1547,13 @@
       <c r="AU14" s="22"/>
     </row>
     <row r="15" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="20" t="s">
         <v>5</v>
       </c>
@@ -1458,27 +1576,27 @@
       <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="K16" s="36"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="9"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="9"/>
-      <c r="U16" s="36"/>
+      <c r="U16" s="35"/>
       <c r="V16" s="9"/>
-      <c r="Z16" s="11"/>
+      <c r="Z16" s="35"/>
       <c r="AA16" s="9"/>
-      <c r="AE16" s="11"/>
+      <c r="AE16" s="35"/>
       <c r="AF16" s="9"/>
-      <c r="AI16" s="11"/>
+      <c r="AI16" s="35"/>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -1493,13 +1611,13 @@
       <c r="AU16" s="22"/>
     </row>
     <row r="17" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="20" t="s">
         <v>5</v>
       </c>
@@ -1517,11 +1635,11 @@
       <c r="AI17" s="8"/>
     </row>
     <row r="18" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="21" t="s">
         <v>6</v>
       </c>
@@ -1529,7 +1647,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="9"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="37"/>
+      <c r="Q18" s="36"/>
       <c r="U18" s="11"/>
       <c r="V18" s="9"/>
       <c r="Z18" s="11"/>
@@ -1551,15 +1669,15 @@
       <c r="AU18" s="22"/>
     </row>
     <row r="19" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="41" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="20" t="s">
         <v>5</v>
       </c>
@@ -1579,11 +1697,11 @@
       <c r="AI19" s="8"/>
     </row>
     <row r="20" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="21" t="s">
         <v>6</v>
       </c>
@@ -1595,7 +1713,8 @@
       <c r="U20" s="11"/>
       <c r="V20" s="9"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="34"/>
       <c r="AE20" s="11"/>
       <c r="AF20" s="9"/>
       <c r="AI20" s="11"/>
@@ -1613,13 +1732,13 @@
       <c r="AU20" s="22"/>
     </row>
     <row r="21" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="20" t="s">
         <v>5</v>
       </c>
@@ -1637,11 +1756,11 @@
       <c r="AI21" s="8"/>
     </row>
     <row r="22" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="21" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1774,9 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="9"/>
       <c r="AE22" s="11"/>
-      <c r="AF22" s="9"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
@@ -1671,13 +1792,13 @@
       <c r="AU22" s="22"/>
     </row>
     <row r="23" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="55"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1695,11 +1816,11 @@
       <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="56"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="21" t="s">
         <v>6</v>
       </c>
@@ -1708,11 +1829,13 @@
       <c r="L24" s="9"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="9"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="36"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="35"/>
       <c r="V24" s="9"/>
       <c r="Z24" s="11"/>
       <c r="AA24" s="9"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
       <c r="AE24" s="11"/>
       <c r="AF24" s="9"/>
       <c r="AI24" s="11"/>
@@ -1730,13 +1853,13 @@
       <c r="AU24" s="22"/>
     </row>
     <row r="25" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="20" t="s">
         <v>5</v>
       </c>
@@ -1756,11 +1879,11 @@
       <c r="AI25" s="8"/>
     </row>
     <row r="26" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="21" t="s">
         <v>6</v>
       </c>
@@ -1790,13 +1913,13 @@
       <c r="AU26" s="22"/>
     </row>
     <row r="27" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="20" t="s">
         <v>5</v>
       </c>
@@ -1807,8 +1930,8 @@
       <c r="Q27" s="6"/>
       <c r="U27" s="8"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="6"/>
       <c r="AE27" s="8"/>
@@ -1816,11 +1939,11 @@
       <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="21" t="s">
         <v>6</v>
       </c>
@@ -1850,13 +1973,13 @@
       <c r="AU28" s="22"/>
     </row>
     <row r="29" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="20" t="s">
         <v>5</v>
       </c>
@@ -1876,11 +1999,11 @@
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="21" t="s">
         <v>6</v>
       </c>
@@ -1910,13 +2033,13 @@
       <c r="AU30" s="22"/>
     </row>
     <row r="31" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="20" t="s">
         <v>5</v>
       </c>
@@ -1936,11 +2059,11 @@
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="21" t="s">
         <v>6</v>
       </c>
@@ -1970,13 +2093,13 @@
       <c r="AU32" s="22"/>
     </row>
     <row r="33" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="53"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="20" t="s">
         <v>5</v>
       </c>
@@ -1994,11 +2117,11 @@
       <c r="AI33" s="8"/>
     </row>
     <row r="34" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="21" t="s">
         <v>6</v>
       </c>
@@ -2028,13 +2151,13 @@
       <c r="AU34" s="22"/>
     </row>
     <row r="35" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="20" t="s">
         <v>5</v>
       </c>
@@ -2052,11 +2175,11 @@
       <c r="AI35" s="8"/>
     </row>
     <row r="36" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="21" t="s">
         <v>6</v>
       </c>
@@ -2086,13 +2209,13 @@
       <c r="AU36" s="22"/>
     </row>
     <row r="37" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="20" t="s">
         <v>5</v>
       </c>
@@ -2112,11 +2235,11 @@
       <c r="AI37" s="29"/>
     </row>
     <row r="38" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="21" t="s">
         <v>6</v>
       </c>
@@ -2146,15 +2269,15 @@
       <c r="AU38" s="22"/>
     </row>
     <row r="39" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="20" t="s">
         <v>5</v>
       </c>
@@ -2172,11 +2295,11 @@
       <c r="AI39" s="8"/>
     </row>
     <row r="40" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="21" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2308,7 @@
       <c r="L40" s="9"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="9"/>
-      <c r="U40" s="58"/>
+      <c r="U40" s="37"/>
       <c r="V40" s="9"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="9"/>
@@ -2206,13 +2329,13 @@
       <c r="AU40" s="22"/>
     </row>
     <row r="41" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="53"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="50" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="20" t="s">
         <v>5</v>
       </c>
@@ -2230,11 +2353,11 @@
       <c r="AI41" s="8"/>
     </row>
     <row r="42" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
       <c r="F42" s="21" t="s">
         <v>6</v>
       </c>
@@ -2264,13 +2387,13 @@
       <c r="AU42" s="22"/>
     </row>
     <row r="43" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="53"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="40" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="20" t="s">
         <v>5</v>
       </c>
@@ -2289,11 +2412,11 @@
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
       <c r="F44" s="21" t="s">
         <v>6</v>
       </c>
@@ -2323,15 +2446,15 @@
       <c r="AU44" s="22"/>
     </row>
     <row r="45" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="20" t="s">
         <v>5</v>
       </c>
@@ -2351,11 +2474,11 @@
       <c r="AI45" s="29"/>
     </row>
     <row r="46" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="21" t="s">
         <v>6</v>
       </c>
@@ -2371,7 +2494,7 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="9"/>
       <c r="AI46" s="11"/>
-      <c r="AJ46" s="22"/>
+      <c r="AJ46" s="58"/>
       <c r="AK46" s="22"/>
       <c r="AL46" s="22"/>
       <c r="AM46" s="22"/>
@@ -2385,13 +2508,13 @@
       <c r="AU46" s="22"/>
     </row>
     <row r="47" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="50" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
@@ -2411,11 +2534,11 @@
       <c r="AI47" s="29"/>
     </row>
     <row r="48" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="21" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2554,7 @@
       <c r="AE48" s="11"/>
       <c r="AF48" s="9"/>
       <c r="AI48" s="11"/>
-      <c r="AJ48" s="22"/>
+      <c r="AJ48" s="58"/>
       <c r="AK48" s="22"/>
       <c r="AL48" s="22"/>
       <c r="AM48" s="22"/>
@@ -2445,13 +2568,13 @@
       <c r="AU48" s="22"/>
     </row>
     <row r="49" spans="1:66" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="50" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="45"/>
       <c r="F49" s="20" t="s">
         <v>5</v>
       </c>
@@ -2471,11 +2594,11 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="21" t="s">
         <v>6</v>
       </c>
@@ -2491,7 +2614,7 @@
       <c r="AE50" s="11"/>
       <c r="AF50" s="9"/>
       <c r="AI50" s="11"/>
-      <c r="AJ50" s="22"/>
+      <c r="AJ50" s="58"/>
       <c r="AK50" s="22"/>
       <c r="AL50" s="22"/>
       <c r="AM50" s="22"/>
@@ -2505,13 +2628,13 @@
       <c r="AU50" s="22"/>
     </row>
     <row r="51" spans="1:66" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="50" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
       <c r="F51" s="20" t="s">
         <v>5</v>
       </c>
@@ -2531,11 +2654,11 @@
       <c r="AI51" s="29"/>
     </row>
     <row r="52" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="49"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="49"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
       <c r="F52" s="21" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2674,7 @@
       <c r="AE52" s="11"/>
       <c r="AF52" s="9"/>
       <c r="AI52" s="11"/>
-      <c r="AJ52" s="22"/>
+      <c r="AJ52" s="58"/>
       <c r="AK52" s="22"/>
       <c r="AL52" s="22"/>
       <c r="AM52" s="22"/>
@@ -2584,13 +2707,13 @@
       <c r="BN52" s="22"/>
     </row>
     <row r="53" spans="1:66" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="40" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
       <c r="F53" s="20" t="s">
         <v>5</v>
       </c>
@@ -2610,11 +2733,11 @@
       <c r="AI53" s="29"/>
     </row>
     <row r="54" spans="1:66" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
       <c r="F54" s="24" t="s">
         <v>6</v>
       </c>
@@ -2630,6 +2753,7 @@
       <c r="AE54" s="26"/>
       <c r="AF54" s="25"/>
       <c r="AI54" s="26"/>
+      <c r="AJ54" s="58"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.3">
       <c r="J55" s="4"/>
@@ -57033,14 +57157,47 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A19:A38"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="D35:E36"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D7:E8"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A54"/>
     <mergeCell ref="D41:E42"/>
@@ -57057,49 +57214,17 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A19:A38"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="D35:E36"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dokumentation/GanttDiagramm.xlsx
+++ b/Dokumentation/GanttDiagramm.xlsx
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -451,23 +451,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,31 +494,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -968,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ54" sqref="AJ54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,58 +1032,58 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14"/>
       <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="17"/>
-      <c r="G1" s="56">
+      <c r="G1" s="39">
         <v>18.5</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="56">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="39">
         <v>1.6</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="56">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="39">
         <v>8.6</v>
       </c>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="56">
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="39">
         <v>15.6</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="56">
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="39">
         <v>22.6</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="56">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="39">
         <v>29.6</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -1183,15 +1184,15 @@
       </c>
     </row>
     <row r="3" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
@@ -1210,11 +1211,11 @@
       <c r="AI3" s="8"/>
     </row>
     <row r="4" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="21" t="s">
         <v>6</v>
       </c>
@@ -1247,13 +1248,13 @@
       <c r="AU4" s="22"/>
     </row>
     <row r="5" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="20" t="s">
         <v>5</v>
       </c>
@@ -1272,11 +1273,11 @@
       <c r="AI5" s="8"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="23"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1307,13 +1308,13 @@
       <c r="AU6" s="22"/>
     </row>
     <row r="7" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1333,11 +1334,11 @@
       <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="23"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="21" t="s">
         <v>6</v>
       </c>
@@ -1367,13 +1368,13 @@
       <c r="AU8" s="22"/>
     </row>
     <row r="9" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
@@ -1391,11 +1392,11 @@
       <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="21" t="s">
         <v>6</v>
       </c>
@@ -1425,13 +1426,13 @@
       <c r="AU10" s="22"/>
     </row>
     <row r="11" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="23"/>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="20" t="s">
         <v>5</v>
       </c>
@@ -1449,11 +1450,11 @@
       <c r="AI11" s="8"/>
     </row>
     <row r="12" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="23"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="21" t="s">
         <v>6</v>
       </c>
@@ -1483,13 +1484,13 @@
       <c r="AU12" s="22"/>
     </row>
     <row r="13" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="23"/>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="20" t="s">
         <v>5</v>
       </c>
@@ -1507,11 +1508,11 @@
       <c r="AI13" s="8"/>
     </row>
     <row r="14" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="23"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
@@ -1547,13 +1548,13 @@
       <c r="AU14" s="22"/>
     </row>
     <row r="15" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="20" t="s">
         <v>5</v>
       </c>
@@ -1576,11 +1577,11 @@
       <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="23"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
@@ -1611,13 +1612,13 @@
       <c r="AU16" s="22"/>
     </row>
     <row r="17" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="23"/>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="20" t="s">
         <v>5</v>
       </c>
@@ -1628,6 +1629,7 @@
       <c r="T17" s="28"/>
       <c r="U17" s="8"/>
       <c r="V17" s="6"/>
+      <c r="X17" s="59"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="6"/>
       <c r="AE17" s="8"/>
@@ -1635,11 +1637,11 @@
       <c r="AI17" s="8"/>
     </row>
     <row r="18" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="21" t="s">
         <v>6</v>
       </c>
@@ -1669,15 +1671,15 @@
       <c r="AU18" s="22"/>
     </row>
     <row r="19" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="20" t="s">
         <v>5</v>
       </c>
@@ -1697,11 +1699,11 @@
       <c r="AI19" s="8"/>
     </row>
     <row r="20" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="21" t="s">
         <v>6</v>
       </c>
@@ -1732,13 +1734,13 @@
       <c r="AU20" s="22"/>
     </row>
     <row r="21" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="23"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="20" t="s">
         <v>5</v>
       </c>
@@ -1756,11 +1758,11 @@
       <c r="AI21" s="8"/>
     </row>
     <row r="22" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="23"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="21" t="s">
         <v>6</v>
       </c>
@@ -1792,13 +1794,13 @@
       <c r="AU22" s="22"/>
     </row>
     <row r="23" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="23"/>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="50"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="20" t="s">
         <v>5</v>
       </c>
@@ -1816,11 +1818,11 @@
       <c r="AI23" s="8"/>
     </row>
     <row r="24" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="23"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="51"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="21" t="s">
         <v>6</v>
       </c>
@@ -1853,13 +1855,13 @@
       <c r="AU24" s="22"/>
     </row>
     <row r="25" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="23"/>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="20" t="s">
         <v>5</v>
       </c>
@@ -1879,11 +1881,11 @@
       <c r="AI25" s="8"/>
     </row>
     <row r="26" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="23"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="21" t="s">
         <v>6</v>
       </c>
@@ -1913,13 +1915,13 @@
       <c r="AU26" s="22"/>
     </row>
     <row r="27" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="23"/>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="20" t="s">
         <v>5</v>
       </c>
@@ -1939,11 +1941,11 @@
       <c r="AI27" s="8"/>
     </row>
     <row r="28" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="23"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="21" t="s">
         <v>6</v>
       </c>
@@ -1973,13 +1975,13 @@
       <c r="AU28" s="22"/>
     </row>
     <row r="29" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="20" t="s">
         <v>5</v>
       </c>
@@ -1999,11 +2001,11 @@
       <c r="AI29" s="8"/>
     </row>
     <row r="30" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="23"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
       <c r="F30" s="21" t="s">
         <v>6</v>
       </c>
@@ -2033,13 +2035,13 @@
       <c r="AU30" s="22"/>
     </row>
     <row r="31" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="20" t="s">
         <v>5</v>
       </c>
@@ -2059,11 +2061,11 @@
       <c r="AI31" s="8"/>
     </row>
     <row r="32" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="23"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="21" t="s">
         <v>6</v>
       </c>
@@ -2093,13 +2095,13 @@
       <c r="AU32" s="22"/>
     </row>
     <row r="33" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="23"/>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="20" t="s">
         <v>5</v>
       </c>
@@ -2117,11 +2119,11 @@
       <c r="AI33" s="8"/>
     </row>
     <row r="34" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="23"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="21" t="s">
         <v>6</v>
       </c>
@@ -2151,13 +2153,13 @@
       <c r="AU34" s="22"/>
     </row>
     <row r="35" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="23"/>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="20" t="s">
         <v>5</v>
       </c>
@@ -2175,11 +2177,11 @@
       <c r="AI35" s="8"/>
     </row>
     <row r="36" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="23"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="21" t="s">
         <v>6</v>
       </c>
@@ -2209,13 +2211,13 @@
       <c r="AU36" s="22"/>
     </row>
     <row r="37" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="23"/>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="20" t="s">
         <v>5</v>
       </c>
@@ -2235,11 +2237,11 @@
       <c r="AI37" s="29"/>
     </row>
     <row r="38" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="23"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="21" t="s">
         <v>6</v>
       </c>
@@ -2269,15 +2271,15 @@
       <c r="AU38" s="22"/>
     </row>
     <row r="39" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="20" t="s">
         <v>5</v>
       </c>
@@ -2295,11 +2297,11 @@
       <c r="AI39" s="8"/>
     </row>
     <row r="40" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="21" t="s">
         <v>6</v>
       </c>
@@ -2329,13 +2331,13 @@
       <c r="AU40" s="22"/>
     </row>
     <row r="41" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="48" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="45"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="20" t="s">
         <v>5</v>
       </c>
@@ -2353,11 +2355,11 @@
       <c r="AI41" s="8"/>
     </row>
     <row r="42" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
       <c r="F42" s="21" t="s">
         <v>6</v>
       </c>
@@ -2387,13 +2389,13 @@
       <c r="AU42" s="22"/>
     </row>
     <row r="43" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="38" t="s">
+      <c r="A43" s="54"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="45"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="20" t="s">
         <v>5</v>
       </c>
@@ -2412,11 +2414,11 @@
       <c r="AI43" s="8"/>
     </row>
     <row r="44" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
       <c r="F44" s="21" t="s">
         <v>6</v>
       </c>
@@ -2446,15 +2448,15 @@
       <c r="AU44" s="22"/>
     </row>
     <row r="45" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="48" t="s">
+      <c r="B45" s="58"/>
+      <c r="C45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="20" t="s">
         <v>5</v>
       </c>
@@ -2474,11 +2476,11 @@
       <c r="AI45" s="29"/>
     </row>
     <row r="46" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
       <c r="F46" s="21" t="s">
         <v>6</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="AE46" s="11"/>
       <c r="AF46" s="9"/>
       <c r="AI46" s="11"/>
-      <c r="AJ46" s="58"/>
+      <c r="AJ46" s="38"/>
       <c r="AK46" s="22"/>
       <c r="AL46" s="22"/>
       <c r="AM46" s="22"/>
@@ -2508,13 +2510,13 @@
       <c r="AU46" s="22"/>
     </row>
     <row r="47" spans="1:47" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="48" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="45"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="20" t="s">
         <v>5</v>
       </c>
@@ -2534,11 +2536,11 @@
       <c r="AI47" s="29"/>
     </row>
     <row r="48" spans="1:47" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
       <c r="F48" s="21" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2556,7 @@
       <c r="AE48" s="11"/>
       <c r="AF48" s="9"/>
       <c r="AI48" s="11"/>
-      <c r="AJ48" s="58"/>
+      <c r="AJ48" s="38"/>
       <c r="AK48" s="22"/>
       <c r="AL48" s="22"/>
       <c r="AM48" s="22"/>
@@ -2568,13 +2570,13 @@
       <c r="AU48" s="22"/>
     </row>
     <row r="49" spans="1:66" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="48" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="45"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="20" t="s">
         <v>5</v>
       </c>
@@ -2594,11 +2596,11 @@
       <c r="AI49" s="29"/>
     </row>
     <row r="50" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
       <c r="F50" s="21" t="s">
         <v>6</v>
       </c>
@@ -2614,7 +2616,7 @@
       <c r="AE50" s="11"/>
       <c r="AF50" s="9"/>
       <c r="AI50" s="11"/>
-      <c r="AJ50" s="58"/>
+      <c r="AJ50" s="38"/>
       <c r="AK50" s="22"/>
       <c r="AL50" s="22"/>
       <c r="AM50" s="22"/>
@@ -2628,13 +2630,13 @@
       <c r="AU50" s="22"/>
     </row>
     <row r="51" spans="1:66" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="20" t="s">
         <v>5</v>
       </c>
@@ -2654,11 +2656,11 @@
       <c r="AI51" s="29"/>
     </row>
     <row r="52" spans="1:66" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="47"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="21" t="s">
         <v>6</v>
       </c>
@@ -2674,7 +2676,7 @@
       <c r="AE52" s="11"/>
       <c r="AF52" s="9"/>
       <c r="AI52" s="11"/>
-      <c r="AJ52" s="58"/>
+      <c r="AJ52" s="38"/>
       <c r="AK52" s="22"/>
       <c r="AL52" s="22"/>
       <c r="AM52" s="22"/>
@@ -2707,13 +2709,13 @@
       <c r="BN52" s="22"/>
     </row>
     <row r="53" spans="1:66" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="38" t="s">
+      <c r="A53" s="54"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="20" t="s">
         <v>5</v>
       </c>
@@ -2733,11 +2735,11 @@
       <c r="AI53" s="29"/>
     </row>
     <row r="54" spans="1:66" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="24" t="s">
         <v>6</v>
       </c>
@@ -2753,7 +2755,7 @@
       <c r="AE54" s="26"/>
       <c r="AF54" s="25"/>
       <c r="AI54" s="26"/>
-      <c r="AJ54" s="58"/>
+      <c r="AJ54" s="38"/>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.3">
       <c r="J55" s="4"/>
@@ -57157,31 +57159,30 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="D39:E40"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="D45:E46"/>
+    <mergeCell ref="D47:E48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="A19:A38"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="D33:E34"/>
@@ -57198,30 +57199,31 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D7:E8"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="D45:E46"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="D39:E40"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
